--- a/Documentação/Tabelas_LN/tfcmg401-Aviso de Cobranca.xlsx
+++ b/Documentação/Tabelas_LN/tfcmg401-Aviso de Cobranca.xlsx
@@ -327,7 +327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="385">
   <si>
     <t/>
   </si>
@@ -437,10 +437,13 @@
     <t>Aviso de cobrança</t>
   </si>
   <si>
-    <t>B61</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>B61U</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>glo1</t>
   </si>
   <si>
     <t>btno</t>
@@ -518,6 +521,18 @@
     <t>Documento</t>
   </si>
   <si>
+    <t>schn</t>
+  </si>
+  <si>
+    <t>gld.schn</t>
+  </si>
+  <si>
+    <t>tfacr510.seqn</t>
+  </si>
+  <si>
+    <t>Número da linha do programa</t>
+  </si>
+  <si>
     <t>srno</t>
   </si>
   <si>
@@ -806,7 +821,7 @@
     <t>gld.dimx</t>
   </si>
   <si>
-    <t>tfgld015.dim1</t>
+    <t>tfgen.dim1</t>
   </si>
   <si>
     <t>Dimensão 1</t>
@@ -815,7 +830,7 @@
     <t>dim2</t>
   </si>
   <si>
-    <t>tfgld015.dim2</t>
+    <t>tfgen.dim2</t>
   </si>
   <si>
     <t>Dimensão 2</t>
@@ -824,7 +839,7 @@
     <t>dim3</t>
   </si>
   <si>
-    <t>tfgld015.dim3</t>
+    <t>tfgen.dim3</t>
   </si>
   <si>
     <t>Dimensão 3</t>
@@ -833,7 +848,7 @@
     <t>dim4</t>
   </si>
   <si>
-    <t>tfgld015.dim4</t>
+    <t>tfgen.dim4</t>
   </si>
   <si>
     <t>Dimensão 4</t>
@@ -842,12 +857,75 @@
     <t>dim5</t>
   </si>
   <si>
-    <t>tfgld015.dim5</t>
+    <t>tfgen.dim5</t>
   </si>
   <si>
     <t>Dimensão 5</t>
   </si>
   <si>
+    <t>dim6</t>
+  </si>
+  <si>
+    <t>tfgen.dim6</t>
+  </si>
+  <si>
+    <t>Dimensão 6</t>
+  </si>
+  <si>
+    <t>dim7</t>
+  </si>
+  <si>
+    <t>tfgen.dim7</t>
+  </si>
+  <si>
+    <t>Dimensão 7</t>
+  </si>
+  <si>
+    <t>dim8</t>
+  </si>
+  <si>
+    <t>tfgen.dim8</t>
+  </si>
+  <si>
+    <t>Dimensão 8</t>
+  </si>
+  <si>
+    <t>dim9</t>
+  </si>
+  <si>
+    <t>tfgen.dim9</t>
+  </si>
+  <si>
+    <t>Dimensão 9</t>
+  </si>
+  <si>
+    <t>dm10</t>
+  </si>
+  <si>
+    <t>tfgen.dm10</t>
+  </si>
+  <si>
+    <t>Dimensão 10</t>
+  </si>
+  <si>
+    <t>dm11</t>
+  </si>
+  <si>
+    <t>tfgen.dm11</t>
+  </si>
+  <si>
+    <t>Dimensão 11</t>
+  </si>
+  <si>
+    <t>dm12</t>
+  </si>
+  <si>
+    <t>tfgen.dm12</t>
+  </si>
+  <si>
+    <t>Dimensão 12</t>
+  </si>
+  <si>
     <t>bkrn</t>
   </si>
   <si>
@@ -908,6 +986,96 @@
     <t>Comissão de factoring em moeda local</t>
   </si>
   <si>
+    <t>cfrs</t>
+  </si>
+  <si>
+    <t>cdis</t>
+  </si>
+  <si>
+    <t>tfacr200.cfrs</t>
+  </si>
+  <si>
+    <t>Mot. fluxo banco</t>
+  </si>
+  <si>
+    <t>whti</t>
+  </si>
+  <si>
+    <t>tfcmg204.whti</t>
+  </si>
+  <si>
+    <t>IRRF</t>
+  </si>
+  <si>
+    <t>scti</t>
+  </si>
+  <si>
+    <t>tfcmg206.scti</t>
+  </si>
+  <si>
+    <t>INSS</t>
+  </si>
+  <si>
+    <t>scei</t>
+  </si>
+  <si>
+    <t>tfcmg206.scei</t>
+  </si>
+  <si>
+    <t>Despesa da cia. da contrib. social</t>
+  </si>
+  <si>
+    <t>wnai</t>
+  </si>
+  <si>
+    <t>tfcmg101.wnai</t>
+  </si>
+  <si>
+    <t>WT (Normal no pagamento da fatura)</t>
+  </si>
+  <si>
+    <t>snai</t>
+  </si>
+  <si>
+    <t>tfcmg101.snai</t>
+  </si>
+  <si>
+    <t>SC (Normal no pagamento da fatura)</t>
+  </si>
+  <si>
+    <t>enai</t>
+  </si>
+  <si>
+    <t>tfcmg101.enai</t>
+  </si>
+  <si>
+    <t>SCCE (Normal no pagamento da fatura)</t>
+  </si>
+  <si>
+    <t>mref</t>
+  </si>
+  <si>
+    <t>tfcmg030.mref</t>
+  </si>
+  <si>
+    <t>Cobrança automática</t>
+  </si>
+  <si>
+    <t>mver</t>
+  </si>
+  <si>
+    <t>mcs.long</t>
+  </si>
+  <si>
+    <t>tfcmg024.vers</t>
+  </si>
+  <si>
+    <t>Versão</t>
+  </si>
+  <si>
+    <t>mfdd</t>
+  </si>
+  <si>
     <t>c001</t>
   </si>
   <si>
@@ -918,6 +1086,402 @@
   </si>
   <si>
     <t>vatc + cvat</t>
+  </si>
+  <si>
+    <t>cmbc</t>
+  </si>
+  <si>
+    <t>dued.l</t>
+  </si>
+  <si>
+    <t>tfacr200.dued</t>
+  </si>
+  <si>
+    <t>Data venc.</t>
+  </si>
+  <si>
+    <t>intp.l</t>
+  </si>
+  <si>
+    <t>intt.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.intp.l</t>
+  </si>
+  <si>
+    <t>Tipo juros</t>
+  </si>
+  <si>
+    <t>inra.l</t>
+  </si>
+  <si>
+    <t>cmg.inra.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.inra.l</t>
+  </si>
+  <si>
+    <t>Taxa juros</t>
+  </si>
+  <si>
+    <t>inpr.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.inpr.l</t>
+  </si>
+  <si>
+    <t>Período juros</t>
+  </si>
+  <si>
+    <t>disp.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.disp.l</t>
+  </si>
+  <si>
+    <t>Periodicidade</t>
+  </si>
+  <si>
+    <t>inam.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.inam.l</t>
+  </si>
+  <si>
+    <t>Valor juros</t>
+  </si>
+  <si>
+    <t>inah.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.inah.l</t>
+  </si>
+  <si>
+    <t>Juros na moeda cia.</t>
+  </si>
+  <si>
+    <t>dist.l</t>
+  </si>
+  <si>
+    <t>cmg.dist.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.dist.l</t>
+  </si>
+  <si>
+    <t>Tipo desconto</t>
+  </si>
+  <si>
+    <t>dira.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.dira.l</t>
+  </si>
+  <si>
+    <t>Taxa desconto</t>
+  </si>
+  <si>
+    <t>fcha.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.fcha.l</t>
+  </si>
+  <si>
+    <t>Valor despesa financeira</t>
+  </si>
+  <si>
+    <t>reba.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.reba.l</t>
+  </si>
+  <si>
+    <t>Abatimento</t>
+  </si>
+  <si>
+    <t>rebh.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.rebh.l</t>
+  </si>
+  <si>
+    <t>Abatimento na moeda cia</t>
+  </si>
+  <si>
+    <t>disa.l</t>
+  </si>
+  <si>
+    <t>tcgen.obsolete</t>
+  </si>
+  <si>
+    <t>Obsoleto</t>
+  </si>
+  <si>
+    <t>dish.l</t>
+  </si>
+  <si>
+    <t>tyvd.l</t>
+  </si>
+  <si>
+    <t>cmg.tyvd.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.tyvd.l</t>
+  </si>
+  <si>
+    <t>Tipo vendor</t>
+  </si>
+  <si>
+    <t>cpay.l</t>
+  </si>
+  <si>
+    <t>cpay</t>
+  </si>
+  <si>
+    <t>tfcmg401.cpay.l</t>
+  </si>
+  <si>
+    <t>Condição pagamento</t>
+  </si>
+  <si>
+    <t>pevd.l</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>tfcmg401.pevd.l</t>
+  </si>
+  <si>
+    <t>Período vendor</t>
+  </si>
+  <si>
+    <t>tope.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.tope.l</t>
+  </si>
+  <si>
+    <t>Período total vendor</t>
+  </si>
+  <si>
+    <t>orpe.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.orpe.l</t>
+  </si>
+  <si>
+    <t>Período original vendor</t>
+  </si>
+  <si>
+    <t>brat.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.brat.l</t>
+  </si>
+  <si>
+    <t>Taxa parceiro</t>
+  </si>
+  <si>
+    <t>bprp.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.bprp.l</t>
+  </si>
+  <si>
+    <t>Taxa período parceiro</t>
+  </si>
+  <si>
+    <t>ngrt.l</t>
+  </si>
+  <si>
+    <t>cmg.rape.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.ngrt.l</t>
+  </si>
+  <si>
+    <t>Taxa negociável</t>
+  </si>
+  <si>
+    <t>pnra.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.pnra.l</t>
+  </si>
+  <si>
+    <t>Periodicidade de taxa negociável</t>
+  </si>
+  <si>
+    <t>dtba.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.dtba.l</t>
+  </si>
+  <si>
+    <t>Data  base vendor</t>
+  </si>
+  <si>
+    <t>raca.l</t>
+  </si>
+  <si>
+    <t>cmg.raca.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.raca.l</t>
+  </si>
+  <si>
+    <t>Categoria vendor</t>
+  </si>
+  <si>
+    <t>bicd.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.bicd.l</t>
+  </si>
+  <si>
+    <t>Indice banco parceiro</t>
+  </si>
+  <si>
+    <t>baid.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.baid.l</t>
+  </si>
+  <si>
+    <t>Indice banco</t>
+  </si>
+  <si>
+    <t>bksc.l</t>
+  </si>
+  <si>
+    <t>cmg.bksv.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.bksc.l</t>
+  </si>
+  <si>
+    <t>Tipo de serviço bancário</t>
+  </si>
+  <si>
+    <t>occu.l</t>
+  </si>
+  <si>
+    <t>cmg.code.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.occu.l</t>
+  </si>
+  <si>
+    <t>Código ocorrência</t>
+  </si>
+  <si>
+    <t>fiit.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.fiit.l</t>
+  </si>
+  <si>
+    <t>1a instrução</t>
+  </si>
+  <si>
+    <t>sins.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.sins.l</t>
+  </si>
+  <si>
+    <t>2a instrução</t>
+  </si>
+  <si>
+    <t>ebfd.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.ebfd.l</t>
+  </si>
+  <si>
+    <t>Data desconto vendor</t>
+  </si>
+  <si>
+    <t>dudt.l</t>
+  </si>
+  <si>
+    <t>tfacr201.recd</t>
+  </si>
+  <si>
+    <t>Data de recebimento planejada</t>
+  </si>
+  <si>
+    <t>seqn.l</t>
+  </si>
+  <si>
+    <t>acp.sern.l</t>
+  </si>
+  <si>
+    <t>paln.l</t>
+  </si>
+  <si>
+    <t>tfcmg101.pagm.l</t>
+  </si>
+  <si>
+    <t>Nº linha contrato pagamento</t>
+  </si>
+  <si>
+    <t>ramn.l</t>
+  </si>
+  <si>
+    <t>tfcmg101.ramn.l</t>
+  </si>
+  <si>
+    <t>Valor Imposto Retido</t>
+  </si>
+  <si>
+    <t>ramh.l</t>
+  </si>
+  <si>
+    <t>tfcmg101.ramh.l</t>
+  </si>
+  <si>
+    <t>Valor Imp. Retido na Moeda da Cia</t>
+  </si>
+  <si>
+    <t>amnt.l</t>
+  </si>
+  <si>
+    <t>tfcmg401.amnt.l</t>
+  </si>
+  <si>
+    <t>Valor total a ser descontado</t>
+  </si>
+  <si>
+    <t>obse.l</t>
+  </si>
+  <si>
+    <t>mcs.str40</t>
+  </si>
+  <si>
+    <t>tfcmg401.obse.l</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>cost.l</t>
+  </si>
+  <si>
+    <t>tfcmg949.cost.l</t>
+  </si>
+  <si>
+    <t>Custo Banco</t>
+  </si>
+  <si>
+    <t>coty.l</t>
+  </si>
+  <si>
+    <t>tfcmg983.coty.l</t>
+  </si>
+  <si>
+    <t>Tipo de Cobrança</t>
   </si>
 </sst>
 </file>
@@ -1287,11 +1851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1301,15 +1865,15 @@
     <col min="3" max="3" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
@@ -1396,7 +1960,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
@@ -1405,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>8</v>
@@ -1414,7 +1978,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>18</v>
@@ -1423,10 +1987,10 @@
         <v>6</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1452,7 +2016,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
@@ -1461,16 +2025,16 @@
         <v>2</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>21</v>
@@ -1479,10 +2043,10 @@
         <v>9</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1508,7 +2072,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
@@ -1517,16 +2081,16 @@
         <v>3</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>17</v>
@@ -1535,10 +2099,10 @@
         <v>3</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1564,7 +2128,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -1573,7 +2137,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>8</v>
@@ -1582,7 +2146,7 @@
         <v>32</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>22</v>
@@ -1591,10 +2155,10 @@
         <v>25</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1620,7 +2184,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -1629,7 +2193,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>8</v>
@@ -1638,7 +2202,7 @@
         <v>32</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>21</v>
@@ -1647,10 +2211,10 @@
         <v>3</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1676,7 +2240,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
@@ -1685,7 +2249,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>8</v>
@@ -1694,7 +2258,7 @@
         <v>32</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>18</v>
@@ -1703,10 +2267,10 @@
         <v>8</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1732,7 +2296,7 @@
         <v>37</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
@@ -1741,7 +2305,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>8</v>
@@ -1750,19 +2314,19 @@
         <v>32</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P8" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1788,7 +2352,7 @@
         <v>37</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -1797,28 +2361,28 @@
         <v>8</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P9" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1844,7 +2408,7 @@
         <v>37</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
@@ -1853,28 +2417,28 @@
         <v>9</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P10" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1900,7 +2464,7 @@
         <v>37</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -1909,28 +2473,28 @@
         <v>10</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P11" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1956,7 +2520,7 @@
         <v>37</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
@@ -1965,28 +2529,28 @@
         <v>11</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P12" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2012,7 +2576,7 @@
         <v>37</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -2021,28 +2585,28 @@
         <v>12</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="P13" s="4">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2068,7 +2632,7 @@
         <v>37</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
@@ -2077,28 +2641,28 @@
         <v>13</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P14" s="4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2124,7 +2688,7 @@
         <v>37</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -2133,28 +2697,28 @@
         <v>14</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P15" s="4">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2180,7 +2744,7 @@
         <v>37</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
@@ -2189,7 +2753,7 @@
         <v>15</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>8</v>
@@ -2198,7 +2762,7 @@
         <v>32</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>20</v>
@@ -2207,10 +2771,10 @@
         <v>19</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2236,7 +2800,7 @@
         <v>37</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
@@ -2245,7 +2809,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>8</v>
@@ -2254,7 +2818,7 @@
         <v>32</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>20</v>
@@ -2263,10 +2827,10 @@
         <v>19</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2292,7 +2856,7 @@
         <v>37</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
@@ -2301,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>8</v>
@@ -2310,19 +2874,19 @@
         <v>32</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P18" s="4">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2348,7 +2912,7 @@
         <v>37</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
@@ -2357,7 +2921,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>8</v>
@@ -2366,19 +2930,19 @@
         <v>32</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P19" s="4">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2404,7 +2968,7 @@
         <v>37</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
@@ -2413,16 +2977,16 @@
         <v>19</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>21</v>
@@ -2431,10 +2995,10 @@
         <v>3</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2460,7 +3024,7 @@
         <v>37</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -2469,28 +3033,28 @@
         <v>20</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P21" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2516,7 +3080,7 @@
         <v>37</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
@@ -2525,7 +3089,7 @@
         <v>21</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>8</v>
@@ -2534,19 +3098,19 @@
         <v>32</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P22" s="4">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2572,7 +3136,7 @@
         <v>37</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I23" s="4">
         <v>0</v>
@@ -2581,7 +3145,7 @@
         <v>22</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>8</v>
@@ -2590,7 +3154,7 @@
         <v>32</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>20</v>
@@ -2599,10 +3163,10 @@
         <v>19</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2628,7 +3192,7 @@
         <v>37</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
@@ -2637,7 +3201,7 @@
         <v>23</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>8</v>
@@ -2646,7 +3210,7 @@
         <v>32</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>20</v>
@@ -2655,10 +3219,10 @@
         <v>19</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2684,7 +3248,7 @@
         <v>37</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
@@ -2693,7 +3257,7 @@
         <v>24</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>8</v>
@@ -2702,7 +3266,7 @@
         <v>32</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>20</v>
@@ -2711,10 +3275,10 @@
         <v>19</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2740,7 +3304,7 @@
         <v>37</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I26" s="4">
         <v>0</v>
@@ -2749,7 +3313,7 @@
         <v>25</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>8</v>
@@ -2758,7 +3322,7 @@
         <v>32</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>20</v>
@@ -2767,10 +3331,10 @@
         <v>19</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2796,7 +3360,7 @@
         <v>37</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
@@ -2805,7 +3369,7 @@
         <v>26</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>8</v>
@@ -2814,7 +3378,7 @@
         <v>32</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>20</v>
@@ -2823,10 +3387,10 @@
         <v>19</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2852,7 +3416,7 @@
         <v>37</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
@@ -2861,7 +3425,7 @@
         <v>27</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>8</v>
@@ -2870,19 +3434,19 @@
         <v>32</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P28" s="4">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2908,7 +3472,7 @@
         <v>37</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
@@ -2917,7 +3481,7 @@
         <v>28</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>8</v>
@@ -2926,19 +3490,19 @@
         <v>32</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P29" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2964,7 +3528,7 @@
         <v>37</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
@@ -2973,7 +3537,7 @@
         <v>29</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>8</v>
@@ -2982,19 +3546,19 @@
         <v>32</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P30" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3020,7 +3584,7 @@
         <v>37</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I31" s="4">
         <v>0</v>
@@ -3029,7 +3593,7 @@
         <v>30</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>8</v>
@@ -3038,19 +3602,19 @@
         <v>32</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="P31" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3076,7 +3640,7 @@
         <v>37</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I32" s="4">
         <v>0</v>
@@ -3085,7 +3649,7 @@
         <v>31</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>8</v>
@@ -3094,19 +3658,19 @@
         <v>32</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P32" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3132,7 +3696,7 @@
         <v>37</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I33" s="4">
         <v>0</v>
@@ -3141,7 +3705,7 @@
         <v>32</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>8</v>
@@ -3150,19 +3714,19 @@
         <v>32</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P33" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3188,7 +3752,7 @@
         <v>37</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I34" s="4">
         <v>0</v>
@@ -3197,28 +3761,28 @@
         <v>33</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P34" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3244,7 +3808,7 @@
         <v>37</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I35" s="4">
         <v>0</v>
@@ -3253,28 +3817,28 @@
         <v>34</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P35" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3300,7 +3864,7 @@
         <v>37</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I36" s="4">
         <v>0</v>
@@ -3309,28 +3873,28 @@
         <v>35</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P36" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3356,7 +3920,7 @@
         <v>37</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I37" s="4">
         <v>0</v>
@@ -3365,28 +3929,28 @@
         <v>36</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P37" s="4">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3412,7 +3976,7 @@
         <v>37</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I38" s="4">
         <v>0</v>
@@ -3421,28 +3985,28 @@
         <v>37</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P38" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3468,7 +4032,7 @@
         <v>37</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I39" s="4">
         <v>0</v>
@@ -3477,7 +4041,7 @@
         <v>38</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>8</v>
@@ -3486,7 +4050,7 @@
         <v>32</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>21</v>
@@ -3495,10 +4059,10 @@
         <v>9</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3524,7 +4088,7 @@
         <v>37</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I40" s="4">
         <v>0</v>
@@ -3533,7 +4097,7 @@
         <v>39</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>8</v>
@@ -3542,7 +4106,7 @@
         <v>32</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>21</v>
@@ -3551,10 +4115,10 @@
         <v>9</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3580,7 +4144,7 @@
         <v>37</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I41" s="4">
         <v>0</v>
@@ -3589,7 +4153,7 @@
         <v>40</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>8</v>
@@ -3598,7 +4162,7 @@
         <v>32</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>21</v>
@@ -3607,10 +4171,10 @@
         <v>9</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3636,7 +4200,7 @@
         <v>37</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I42" s="4">
         <v>0</v>
@@ -3645,7 +4209,7 @@
         <v>41</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>8</v>
@@ -3654,7 +4218,7 @@
         <v>32</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O42" s="4" t="s">
         <v>21</v>
@@ -3663,10 +4227,10 @@
         <v>9</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3692,7 +4256,7 @@
         <v>37</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I43" s="4">
         <v>0</v>
@@ -3701,7 +4265,7 @@
         <v>42</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>8</v>
@@ -3710,19 +4274,19 @@
         <v>32</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P43" s="4">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3748,7 +4312,7 @@
         <v>37</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I44" s="4">
         <v>0</v>
@@ -3757,7 +4321,7 @@
         <v>43</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>8</v>
@@ -3766,19 +4330,19 @@
         <v>32</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P44" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3804,7 +4368,7 @@
         <v>37</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I45" s="4">
         <v>0</v>
@@ -3813,16 +4377,16 @@
         <v>44</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="O45" s="4" t="s">
         <v>21</v>
@@ -3860,7 +4424,7 @@
         <v>37</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I46" s="4">
         <v>0</v>
@@ -3875,16 +4439,16 @@
         <v>8</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P46" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q46" s="4" t="s">
         <v>185</v>
@@ -3916,7 +4480,7 @@
         <v>37</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I47" s="4">
         <v>0</v>
@@ -3931,10 +4495,10 @@
         <v>8</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>21</v>
@@ -3972,7 +4536,7 @@
         <v>37</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I48" s="4">
         <v>0</v>
@@ -3990,13 +4554,13 @@
         <v>32</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P48" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>191</v>
@@ -4028,7 +4592,7 @@
         <v>37</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I49" s="4">
         <v>0</v>
@@ -4040,22 +4604,25 @@
         <v>193</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="P49" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>0</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4081,7 +4648,7 @@
         <v>37</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I50" s="4">
         <v>0</v>
@@ -4090,25 +4657,3379 @@
         <v>49</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
+        <v>50</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="4">
+        <v>27</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>51</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>52</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>53</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P54" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>54</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P55" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>55</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <v>56</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P57" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
+        <v>57</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <v>58</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
+        <v>59</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
+        <v>60</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="R61" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <v>61</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="R62" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <v>62</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
+        <v>63</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P64" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="R64" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4">
+        <v>64</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P65" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="R65" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
+        <v>65</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P66" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R66" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
+        <v>72</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="L67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M50" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P50" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="R50" s="4" t="s">
-        <v>196</v>
+      <c r="M67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4">
+        <v>73</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P68" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <v>74</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P69" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+      <c r="J70" s="4">
+        <v>200</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P70" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="R70" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4">
+        <v>201</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P71" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="R71" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <v>202</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="R72" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
+        <v>203</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P73" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="R73" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
+        <v>204</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P74" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q74" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="R74" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I75" s="4">
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
+        <v>205</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="R75" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I76" s="4">
+        <v>0</v>
+      </c>
+      <c r="J76" s="4">
+        <v>206</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="R76" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0</v>
+      </c>
+      <c r="J77" s="4">
+        <v>207</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P77" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="R77" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I78" s="4">
+        <v>0</v>
+      </c>
+      <c r="J78" s="4">
+        <v>208</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="R78" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="4">
+        <v>0</v>
+      </c>
+      <c r="J79" s="4">
+        <v>209</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q79" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="R79" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I80" s="4">
+        <v>0</v>
+      </c>
+      <c r="J80" s="4">
+        <v>210</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="R80" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I81" s="4">
+        <v>0</v>
+      </c>
+      <c r="J81" s="4">
+        <v>211</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0</v>
+      </c>
+      <c r="J82" s="4">
+        <v>212</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P82" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q82" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="R82" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0</v>
+      </c>
+      <c r="J83" s="4">
+        <v>213</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P83" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="R83" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I84" s="4">
+        <v>0</v>
+      </c>
+      <c r="J84" s="4">
+        <v>214</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P84" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q84" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="R84" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0</v>
+      </c>
+      <c r="J85" s="4">
+        <v>215</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P85" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q85" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="R85" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0</v>
+      </c>
+      <c r="J86" s="4">
+        <v>216</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="O86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P86" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q86" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="R86" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
+      <c r="J87" s="4">
+        <v>217</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P87" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="R87" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
+      <c r="J88" s="4">
+        <v>218</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P88" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="R88" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+      <c r="J89" s="4">
+        <v>219</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P89" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="R89" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I90" s="4">
+        <v>0</v>
+      </c>
+      <c r="J90" s="4">
+        <v>220</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P90" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q90" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="R90" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I91" s="4">
+        <v>0</v>
+      </c>
+      <c r="J91" s="4">
+        <v>221</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="O91" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P91" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q91" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="R91" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0</v>
+      </c>
+      <c r="J92" s="4">
+        <v>222</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="O92" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P92" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q92" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="R92" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+      <c r="J93" s="4">
+        <v>223</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O93" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P93" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="R93" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0</v>
+      </c>
+      <c r="J94" s="4">
+        <v>224</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P94" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="R94" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0</v>
+      </c>
+      <c r="J95" s="4">
+        <v>225</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O95" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P95" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q95" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="R95" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I96" s="4">
+        <v>0</v>
+      </c>
+      <c r="J96" s="4">
+        <v>226</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P96" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q96" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="R96" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I97" s="4">
+        <v>0</v>
+      </c>
+      <c r="J97" s="4">
+        <v>227</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="O97" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P97" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q97" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="R97" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0</v>
+      </c>
+      <c r="J98" s="4">
+        <v>228</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P98" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q98" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="R98" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0</v>
+      </c>
+      <c r="J99" s="4">
+        <v>229</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="O99" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P99" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q99" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="R99" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I100" s="4">
+        <v>0</v>
+      </c>
+      <c r="J100" s="4">
+        <v>230</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="O100" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P100" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q100" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="R100" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0</v>
+      </c>
+      <c r="J101" s="4">
+        <v>231</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O101" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P101" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q101" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="R101" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0</v>
+      </c>
+      <c r="J102" s="4">
+        <v>232</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O102" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P102" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q102" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="R102" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I103" s="4">
+        <v>0</v>
+      </c>
+      <c r="J103" s="4">
+        <v>233</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M103" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="O103" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P103" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q103" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="R103" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I104" s="4">
+        <v>0</v>
+      </c>
+      <c r="J104" s="4">
+        <v>234</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="O104" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P104" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q104" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="R104" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0</v>
+      </c>
+      <c r="J105" s="4">
+        <v>235</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M105" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O105" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P105" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q105" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="R105" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0</v>
+      </c>
+      <c r="J106" s="4">
+        <v>236</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M106" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O106" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P106" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q106" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="R106" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I107" s="4">
+        <v>0</v>
+      </c>
+      <c r="J107" s="4">
+        <v>237</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O107" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P107" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q107" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="R107" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0</v>
+      </c>
+      <c r="J108" s="4">
+        <v>238</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M108" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="O108" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P108" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q108" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="R108" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0</v>
+      </c>
+      <c r="J109" s="4">
+        <v>239</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O109" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P109" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q109" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="R109" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I110" s="4">
+        <v>0</v>
+      </c>
+      <c r="J110" s="4">
+        <v>240</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="O110" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P110" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q110" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="R110" s="4" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
